--- a/documentation/AMR_test_matrix.xlsx
+++ b/documentation/AMR_test_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfrederi\Documents\Projects\Advanced Control and Systems Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A6C454-3480-4705-8546-F555FF365327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C932C6-0AE0-41F2-B6BB-AB4124DC1881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2DA7BB5-9D90-42AA-86B1-025E59CA7590}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D2DA7BB5-9D90-42AA-86B1-025E59CA7590}"/>
   </bookViews>
   <sheets>
     <sheet name="Must have" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="62">
   <si>
     <t>MUST HAVE</t>
   </si>
@@ -77,24 +77,12 @@
     <t>Wake steering, -10 deg</t>
   </si>
   <si>
-    <t>Wake steering, 0 deg</t>
-  </si>
-  <si>
     <t>Wake steering, 10 deg</t>
   </si>
   <si>
     <t>Wake steering, 20 deg</t>
   </si>
   <si>
-    <t>Helix, A=(2,3,4?), St=0.3?</t>
-  </si>
-  <si>
-    <t>Pulse, A=(2,3,4?), St=0.3?</t>
-  </si>
-  <si>
-    <t>Side-to-side, A=(2,3,4?), St=0.3?</t>
-  </si>
-  <si>
     <t>Counter</t>
   </si>
   <si>
@@ -110,34 +98,133 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Helix, A=2?, St=0.3?</t>
-  </si>
-  <si>
-    <t>Helix, A=4?, St=0.3?</t>
-  </si>
-  <si>
-    <t>Wake steering, optimal yaw</t>
-  </si>
-  <si>
-    <t>Location NREL</t>
-  </si>
-  <si>
-    <t>Location SNL</t>
-  </si>
-  <si>
-    <t>Running NREL / Running SNL / Done</t>
-  </si>
-  <si>
-    <t>Pulse, A=2?, St=0.3?</t>
-  </si>
-  <si>
-    <t>Side-to-side, A=2?, St=0.3?</t>
-  </si>
-  <si>
-    <t>Pulse, A=4?, St=0.3?</t>
-  </si>
-  <si>
-    <t>Side-to-side, A=4?, St=0.3?</t>
+    <t>Helix, A=2, St=0.3</t>
+  </si>
+  <si>
+    <t>Pulse, A=2, St=0.3</t>
+  </si>
+  <si>
+    <t>Side-to-side, A=2, St=0.3</t>
+  </si>
+  <si>
+    <t>Helix, A=4, St=0.3</t>
+  </si>
+  <si>
+    <t>Pulse, A=4, St=0.3</t>
+  </si>
+  <si>
+    <t>Side-to-side, A=4, St=0.3</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>0.5D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.5D</t>
+  </si>
+  <si>
+    <t>Low TI, low WS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Low TI, high WS</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>Kestrel</t>
+  </si>
+  <si>
+    <t>SHOULD HAVE</t>
+  </si>
+  <si>
+    <t>COULD HAVE</t>
+  </si>
+  <si>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>Low TI, med WS</t>
+  </si>
+  <si>
+    <t>Wake steering, -15 deg</t>
+  </si>
+  <si>
+    <t>Wake steering, -5 deg</t>
+  </si>
+  <si>
+    <t>Wake steering, 5 deg</t>
+  </si>
+  <si>
+    <t>Wake steering, 15 deg</t>
+  </si>
+  <si>
+    <t>Helix, A=4, St=0.2</t>
+  </si>
+  <si>
+    <t>Helix, A=4, St=0.25</t>
+  </si>
+  <si>
+    <t>Helix, A=4, St=0.35</t>
+  </si>
+  <si>
+    <t>Helix, A=4, St=0.4</t>
+  </si>
+  <si>
+    <t>Helix, A=1, St=opt</t>
+  </si>
+  <si>
+    <t>Helix, A=3, St=opt</t>
+  </si>
+  <si>
+    <t>Pulse, A=4, St=0.2</t>
+  </si>
+  <si>
+    <t>Pulse, A=4, St=0.25</t>
+  </si>
+  <si>
+    <t>Pulse, A=4, St=0.35</t>
+  </si>
+  <si>
+    <t>Pulse, A=4, St=0.4</t>
+  </si>
+  <si>
+    <t>S2S, A=4, St=0.2</t>
+  </si>
+  <si>
+    <t>S2S, A=4, St=0.25</t>
+  </si>
+  <si>
+    <t>S2S, A=4, St=0.35</t>
+  </si>
+  <si>
+    <t>S2S, A=4, St=0.4</t>
+  </si>
+  <si>
+    <t>S2S, A=4, St=0.3</t>
+  </si>
+  <si>
+    <t>Med TI, med WS</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>High TI, med WS</t>
   </si>
 </sst>
 </file>
@@ -148,7 +235,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +243,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,10 +270,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,9 +292,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,39 +302,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,7 +386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -351,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,6 +497,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -418,13 +512,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -489,31 +576,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,76 +588,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2CB6E4-2949-4635-9BC6-B9D71E251EE3}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -609,11 +672,17 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -630,10 +699,19 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -650,10 +728,19 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -670,10 +757,19 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -690,10 +786,19 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -710,10 +815,19 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -730,10 +844,19 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -752,8 +875,17 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -772,10 +904,19 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -792,10 +933,19 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -812,30 +962,48 @@
       <c r="G13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -844,18 +1012,27 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -864,18 +1041,27 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -884,18 +1070,27 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -904,36 +1099,24 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -945,73 +1128,824 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5086A116-6DD9-4870-839E-E5877F96614D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1025,73 +1959,1291 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C40EA8-A604-49FE-87EF-0CBBA8C9A2EF}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I21"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1105,73 +3257,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1572929-8B17-46DD-8194-A475E726946F}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J25"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>27</v>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
